--- a/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H2">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I2">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J2">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.88113135279385</v>
+        <v>0.057665</v>
       </c>
       <c r="N2">
-        <v>2.88113135279385</v>
+        <v>0.11533</v>
       </c>
       <c r="O2">
-        <v>0.8943879168117013</v>
+        <v>0.01620051839411325</v>
       </c>
       <c r="P2">
-        <v>0.8943879168117013</v>
+        <v>0.01129612699459945</v>
       </c>
       <c r="Q2">
-        <v>9.734539065779931</v>
+        <v>0.21177378986</v>
       </c>
       <c r="R2">
-        <v>9.734539065779931</v>
+        <v>0.84709515944</v>
       </c>
       <c r="S2">
-        <v>0.1562691136888822</v>
+        <v>0.002744596997698531</v>
       </c>
       <c r="T2">
-        <v>0.1562691136888822</v>
+        <v>0.001570990245950337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3787210209421</v>
+        <v>3.672484</v>
       </c>
       <c r="H3">
-        <v>3.3787210209421</v>
+        <v>7.344968</v>
       </c>
       <c r="I3">
-        <v>0.174721852511098</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J3">
-        <v>0.174721852511098</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.340212874512415</v>
+        <v>3.081226666666667</v>
       </c>
       <c r="N3">
-        <v>0.340212874512415</v>
+        <v>9.243680000000001</v>
       </c>
       <c r="O3">
-        <v>0.1056120831882987</v>
+        <v>0.8656458734026811</v>
       </c>
       <c r="P3">
-        <v>0.1056120831882987</v>
+        <v>0.9053826686676408</v>
       </c>
       <c r="Q3">
-        <v>1.149484390710233</v>
+        <v>11.31575563370667</v>
       </c>
       <c r="R3">
-        <v>1.149484390710233</v>
+        <v>67.89453380224001</v>
       </c>
       <c r="S3">
-        <v>0.01845273882221573</v>
+        <v>0.1466526568726608</v>
       </c>
       <c r="T3">
-        <v>0.01845273882221573</v>
+        <v>0.1259146025898397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.12446642932473</v>
+        <v>3.672484</v>
       </c>
       <c r="H4">
-        <v>5.12446642932473</v>
+        <v>7.344968</v>
       </c>
       <c r="I4">
-        <v>0.2649985784895887</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J4">
-        <v>0.2649985784895887</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.88113135279385</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N4">
-        <v>2.88113135279385</v>
+        <v>0.028678</v>
       </c>
       <c r="O4">
-        <v>0.8943879168117013</v>
+        <v>0.002685617887837104</v>
       </c>
       <c r="P4">
-        <v>0.8943879168117013</v>
+        <v>0.002808899071803719</v>
       </c>
       <c r="Q4">
-        <v>14.76426089586703</v>
+        <v>0.03510649871733333</v>
       </c>
       <c r="R4">
-        <v>14.76426089586703</v>
+        <v>0.210638992304</v>
       </c>
       <c r="S4">
-        <v>0.2370115265733653</v>
+        <v>0.0004549816624757852</v>
       </c>
       <c r="T4">
-        <v>0.2370115265733653</v>
+        <v>0.0003906430093935988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.12446642932473</v>
+        <v>3.672484</v>
       </c>
       <c r="H5">
-        <v>5.12446642932473</v>
+        <v>7.344968</v>
       </c>
       <c r="I5">
-        <v>0.2649985784895887</v>
+        <v>0.16941414656804</v>
       </c>
       <c r="J5">
-        <v>0.2649985784895887</v>
+        <v>0.139073352017148</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.340212874512415</v>
+        <v>0.411003</v>
       </c>
       <c r="N5">
-        <v>0.340212874512415</v>
+        <v>0.822006</v>
       </c>
       <c r="O5">
-        <v>0.1056120831882987</v>
+        <v>0.1154679903153686</v>
       </c>
       <c r="P5">
-        <v>0.1056120831882987</v>
+        <v>0.08051230526595606</v>
       </c>
       <c r="Q5">
-        <v>1.743409454262938</v>
+        <v>1.509401941452</v>
       </c>
       <c r="R5">
-        <v>1.743409454262938</v>
+        <v>6.037607765808</v>
       </c>
       <c r="S5">
-        <v>0.02798705191622334</v>
+        <v>0.01956191103520488</v>
       </c>
       <c r="T5">
-        <v>0.02798705191622334</v>
+        <v>0.01119711617196438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33343027914546</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H6">
-        <v>1.33343027914546</v>
+        <v>16.585895</v>
       </c>
       <c r="I6">
-        <v>0.06895491137700466</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J6">
-        <v>0.06895491137700466</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>2.88113135279385</v>
+        <v>0.057665</v>
       </c>
       <c r="N6">
-        <v>2.88113135279385</v>
+        <v>0.11533</v>
       </c>
       <c r="O6">
-        <v>0.8943879168117013</v>
+        <v>0.01620051839411325</v>
       </c>
       <c r="P6">
-        <v>0.8943879168117013</v>
+        <v>0.01129612699459945</v>
       </c>
       <c r="Q6">
-        <v>3.84178778401064</v>
+        <v>0.3188085450583333</v>
       </c>
       <c r="R6">
-        <v>3.84178778401064</v>
+        <v>1.91285127035</v>
       </c>
       <c r="S6">
-        <v>0.06167243954041467</v>
+        <v>0.004131771812678928</v>
       </c>
       <c r="T6">
-        <v>0.06167243954041467</v>
+        <v>0.003547500719588766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.33343027914546</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H7">
-        <v>1.33343027914546</v>
+        <v>16.585895</v>
       </c>
       <c r="I7">
-        <v>0.06895491137700466</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J7">
-        <v>0.06895491137700466</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.340212874512415</v>
+        <v>3.081226666666667</v>
       </c>
       <c r="N7">
-        <v>0.340212874512415</v>
+        <v>9.243680000000001</v>
       </c>
       <c r="O7">
-        <v>0.1056120831882987</v>
+        <v>0.8656458734026811</v>
       </c>
       <c r="P7">
-        <v>0.1056120831882987</v>
+        <v>0.9053826686676408</v>
       </c>
       <c r="Q7">
-        <v>0.4536501482299689</v>
+        <v>17.03496732151111</v>
       </c>
       <c r="R7">
-        <v>0.4536501482299689</v>
+        <v>153.3147058936</v>
       </c>
       <c r="S7">
-        <v>0.007282471836589979</v>
+        <v>0.2207738747907394</v>
       </c>
       <c r="T7">
-        <v>0.007282471836589979</v>
+        <v>0.2843315828635073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.22339286950985</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H8">
-        <v>1.22339286950985</v>
+        <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.06326461024296919</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J8">
-        <v>0.06326461024296919</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.88113135279385</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N8">
-        <v>2.88113135279385</v>
+        <v>0.028678</v>
       </c>
       <c r="O8">
-        <v>0.8943879168117013</v>
+        <v>0.002685617887837104</v>
       </c>
       <c r="P8">
-        <v>0.8943879168117013</v>
+        <v>0.002808899071803719</v>
       </c>
       <c r="Q8">
-        <v>3.524755553129264</v>
+        <v>0.05285003297888888</v>
       </c>
       <c r="R8">
-        <v>3.524755553129264</v>
+        <v>0.47565029681</v>
       </c>
       <c r="S8">
-        <v>0.05658310296311343</v>
+        <v>0.00068493859385535</v>
       </c>
       <c r="T8">
-        <v>0.05658310296311343</v>
+        <v>0.0008821228269866179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.22339286950985</v>
+        <v>5.528631666666667</v>
       </c>
       <c r="H9">
-        <v>1.22339286950985</v>
+        <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.06326461024296919</v>
+        <v>0.2550394815872238</v>
       </c>
       <c r="J9">
-        <v>0.06326461024296919</v>
+        <v>0.3140457540256751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.340212874512415</v>
+        <v>0.411003</v>
       </c>
       <c r="N9">
-        <v>0.340212874512415</v>
+        <v>0.822006</v>
       </c>
       <c r="O9">
-        <v>0.1056120831882987</v>
+        <v>0.1154679903153686</v>
       </c>
       <c r="P9">
-        <v>0.1056120831882987</v>
+        <v>0.08051230526595606</v>
       </c>
       <c r="Q9">
-        <v>0.4162140047939379</v>
+        <v>2.272284200895</v>
       </c>
       <c r="R9">
-        <v>0.4162140047939379</v>
+        <v>13.63370520537</v>
       </c>
       <c r="S9">
-        <v>0.006681507279855755</v>
+        <v>0.02944889638995018</v>
       </c>
       <c r="T9">
-        <v>0.006681507279855755</v>
+        <v>0.02528454761559251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>8.277702299511621</v>
+        <v>1.120594</v>
       </c>
       <c r="H10">
-        <v>8.277702299511621</v>
+        <v>3.361782</v>
       </c>
       <c r="I10">
-        <v>0.4280600473793395</v>
+        <v>0.05169375173840546</v>
       </c>
       <c r="J10">
-        <v>0.4280600473793395</v>
+        <v>0.06365368664518509</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>2.88113135279385</v>
+        <v>0.057665</v>
       </c>
       <c r="N10">
-        <v>2.88113135279385</v>
+        <v>0.11533</v>
       </c>
       <c r="O10">
-        <v>0.8943879168117013</v>
+        <v>0.01620051839411325</v>
       </c>
       <c r="P10">
-        <v>0.8943879168117013</v>
+        <v>0.01129612699459945</v>
       </c>
       <c r="Q10">
-        <v>23.84914762421668</v>
+        <v>0.06461905301</v>
       </c>
       <c r="R10">
-        <v>23.84914762421668</v>
+        <v>0.38771431806</v>
       </c>
       <c r="S10">
-        <v>0.3828517340459256</v>
+        <v>0.0008374655758987615</v>
       </c>
       <c r="T10">
-        <v>0.3828517340459256</v>
+        <v>0.0007190401280184496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.120594</v>
+      </c>
+      <c r="H11">
+        <v>3.361782</v>
+      </c>
+      <c r="I11">
+        <v>0.05169375173840546</v>
+      </c>
+      <c r="J11">
+        <v>0.06365368664518509</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.081226666666667</v>
+      </c>
+      <c r="N11">
+        <v>9.243680000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8656458734026811</v>
+      </c>
+      <c r="P11">
+        <v>0.9053826686676408</v>
+      </c>
+      <c r="Q11">
+        <v>3.452804115306667</v>
+      </c>
+      <c r="R11">
+        <v>31.07523703776</v>
+      </c>
+      <c r="S11">
+        <v>0.04474848287305336</v>
+      </c>
+      <c r="T11">
+        <v>0.05763094468535145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.120594</v>
+      </c>
+      <c r="H12">
+        <v>3.361782</v>
+      </c>
+      <c r="I12">
+        <v>0.05169375173840546</v>
+      </c>
+      <c r="J12">
+        <v>0.06365368664518509</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.028678</v>
+      </c>
+      <c r="O12">
+        <v>0.002685617887837104</v>
+      </c>
+      <c r="P12">
+        <v>0.002808899071803719</v>
+      </c>
+      <c r="Q12">
+        <v>0.01071213157733333</v>
+      </c>
+      <c r="R12">
+        <v>0.09640918419599999</v>
+      </c>
+      <c r="S12">
+        <v>0.0001388296643580721</v>
+      </c>
+      <c r="T12">
+        <v>0.0001787967813345452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.120594</v>
+      </c>
+      <c r="H13">
+        <v>3.361782</v>
+      </c>
+      <c r="I13">
+        <v>0.05169375173840546</v>
+      </c>
+      <c r="J13">
+        <v>0.06365368664518509</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.411003</v>
+      </c>
+      <c r="N13">
+        <v>0.822006</v>
+      </c>
+      <c r="O13">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P13">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q13">
+        <v>0.460567495782</v>
+      </c>
+      <c r="R13">
+        <v>2.763404974692</v>
+      </c>
+      <c r="S13">
+        <v>0.005968973625095269</v>
+      </c>
+      <c r="T13">
+        <v>0.005124905050480652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.49222</v>
+      </c>
+      <c r="H14">
+        <v>4.47666</v>
+      </c>
+      <c r="I14">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J14">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.057665</v>
+      </c>
+      <c r="N14">
+        <v>0.11533</v>
+      </c>
+      <c r="O14">
+        <v>0.01620051839411325</v>
+      </c>
+      <c r="P14">
+        <v>0.01129612699459945</v>
+      </c>
+      <c r="Q14">
+        <v>0.0860488663</v>
+      </c>
+      <c r="R14">
+        <v>0.5162931978</v>
+      </c>
+      <c r="S14">
+        <v>0.001115196834596339</v>
+      </c>
+      <c r="T14">
+        <v>0.0009574975948752991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.49222</v>
+      </c>
+      <c r="H15">
+        <v>4.47666</v>
+      </c>
+      <c r="I15">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J15">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.081226666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.243680000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8656458734026811</v>
+      </c>
+      <c r="P15">
+        <v>0.9053826686676408</v>
+      </c>
+      <c r="Q15">
+        <v>4.597868056533334</v>
+      </c>
+      <c r="R15">
+        <v>41.38081250880001</v>
+      </c>
+      <c r="S15">
+        <v>0.05958855849025398</v>
+      </c>
+      <c r="T15">
+        <v>0.07674327033553199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="H11">
-        <v>8.277702299511621</v>
-      </c>
-      <c r="I11">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="J11">
-        <v>0.4280600473793395</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.340212874512415</v>
-      </c>
-      <c r="N11">
-        <v>0.340212874512415</v>
-      </c>
-      <c r="O11">
-        <v>0.1056120831882987</v>
-      </c>
-      <c r="P11">
-        <v>0.1056120831882987</v>
-      </c>
-      <c r="Q11">
-        <v>2.816180893674876</v>
-      </c>
-      <c r="R11">
-        <v>2.816180893674876</v>
-      </c>
-      <c r="S11">
-        <v>0.04520831333341388</v>
-      </c>
-      <c r="T11">
-        <v>0.04520831333341388</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.49222</v>
+      </c>
+      <c r="H16">
+        <v>4.47666</v>
+      </c>
+      <c r="I16">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J16">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.028678</v>
+      </c>
+      <c r="O16">
+        <v>0.002685617887837104</v>
+      </c>
+      <c r="P16">
+        <v>0.002808899071803719</v>
+      </c>
+      <c r="Q16">
+        <v>0.01426462838666667</v>
+      </c>
+      <c r="R16">
+        <v>0.12838165548</v>
+      </c>
+      <c r="S16">
+        <v>0.0001848701686323524</v>
+      </c>
+      <c r="T16">
+        <v>0.0002380917022963134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.49222</v>
+      </c>
+      <c r="H17">
+        <v>4.47666</v>
+      </c>
+      <c r="I17">
+        <v>0.0688371080151093</v>
+      </c>
+      <c r="J17">
+        <v>0.08476335254845029</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.411003</v>
+      </c>
+      <c r="N17">
+        <v>0.822006</v>
+      </c>
+      <c r="O17">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P17">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q17">
+        <v>0.6133068966599999</v>
+      </c>
+      <c r="R17">
+        <v>3.67984137996</v>
+      </c>
+      <c r="S17">
+        <v>0.00794848252162662</v>
+      </c>
+      <c r="T17">
+        <v>0.006824492915746684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.317076</v>
+      </c>
+      <c r="H18">
+        <v>3.951228</v>
+      </c>
+      <c r="I18">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J18">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.057665</v>
+      </c>
+      <c r="N18">
+        <v>0.11533</v>
+      </c>
+      <c r="O18">
+        <v>0.01620051839411325</v>
+      </c>
+      <c r="P18">
+        <v>0.01129612699459945</v>
+      </c>
+      <c r="Q18">
+        <v>0.07594918753999999</v>
+      </c>
+      <c r="R18">
+        <v>0.45569512524</v>
+      </c>
+      <c r="S18">
+        <v>0.0009843045838568091</v>
+      </c>
+      <c r="T18">
+        <v>0.0008451147299111252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.317076</v>
+      </c>
+      <c r="H19">
+        <v>3.951228</v>
+      </c>
+      <c r="I19">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J19">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.081226666666667</v>
+      </c>
+      <c r="N19">
+        <v>9.243680000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.8656458734026811</v>
+      </c>
+      <c r="P19">
+        <v>0.9053826686676408</v>
+      </c>
+      <c r="Q19">
+        <v>4.058209693226667</v>
+      </c>
+      <c r="R19">
+        <v>36.52388723904001</v>
+      </c>
+      <c r="S19">
+        <v>0.05259456397991567</v>
+      </c>
+      <c r="T19">
+        <v>0.06773580271035178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.317076</v>
+      </c>
+      <c r="H20">
+        <v>3.951228</v>
+      </c>
+      <c r="I20">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J20">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.028678</v>
+      </c>
+      <c r="O20">
+        <v>0.002685617887837104</v>
+      </c>
+      <c r="P20">
+        <v>0.002808899071803719</v>
+      </c>
+      <c r="Q20">
+        <v>0.01259036850933333</v>
+      </c>
+      <c r="R20">
+        <v>0.113313316584</v>
+      </c>
+      <c r="S20">
+        <v>0.0001631716919902053</v>
+      </c>
+      <c r="T20">
+        <v>0.0002101465379726979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.317076</v>
+      </c>
+      <c r="H21">
+        <v>3.951228</v>
+      </c>
+      <c r="I21">
+        <v>0.06075759799232559</v>
+      </c>
+      <c r="J21">
+        <v>0.07481455637982516</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.411003</v>
+      </c>
+      <c r="N21">
+        <v>0.822006</v>
+      </c>
+      <c r="O21">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P21">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q21">
+        <v>0.541322187228</v>
+      </c>
+      <c r="R21">
+        <v>3.247933123368</v>
+      </c>
+      <c r="S21">
+        <v>0.007015557736562908</v>
+      </c>
+      <c r="T21">
+        <v>0.006023492401589564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.5465465</v>
+      </c>
+      <c r="H22">
+        <v>17.093093</v>
+      </c>
+      <c r="I22">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J22">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.057665</v>
+      </c>
+      <c r="N22">
+        <v>0.11533</v>
+      </c>
+      <c r="O22">
+        <v>0.01620051839411325</v>
+      </c>
+      <c r="P22">
+        <v>0.01129612699459945</v>
+      </c>
+      <c r="Q22">
+        <v>0.4928366039225</v>
+      </c>
+      <c r="R22">
+        <v>1.97134641569</v>
+      </c>
+      <c r="S22">
+        <v>0.006387182589383885</v>
+      </c>
+      <c r="T22">
+        <v>0.003655983576255469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.5465465</v>
+      </c>
+      <c r="H23">
+        <v>17.093093</v>
+      </c>
+      <c r="I23">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J23">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.081226666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.243680000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.8656458734026811</v>
+      </c>
+      <c r="P23">
+        <v>0.9053826686676408</v>
+      </c>
+      <c r="Q23">
+        <v>26.33384698370667</v>
+      </c>
+      <c r="R23">
+        <v>158.00308190224</v>
+      </c>
+      <c r="S23">
+        <v>0.3412877363960579</v>
+      </c>
+      <c r="T23">
+        <v>0.2930264654830587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.5465465</v>
+      </c>
+      <c r="H24">
+        <v>17.093093</v>
+      </c>
+      <c r="I24">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J24">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.028678</v>
+      </c>
+      <c r="O24">
+        <v>0.002685617887837104</v>
+      </c>
+      <c r="P24">
+        <v>0.002808899071803719</v>
+      </c>
+      <c r="Q24">
+        <v>0.08169928684233332</v>
+      </c>
+      <c r="R24">
+        <v>0.4901957210539999</v>
+      </c>
+      <c r="S24">
+        <v>0.001058826106525339</v>
+      </c>
+      <c r="T24">
+        <v>0.0009090982138199458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.5465465</v>
+      </c>
+      <c r="H25">
+        <v>17.093093</v>
+      </c>
+      <c r="I25">
+        <v>0.3942579140988959</v>
+      </c>
+      <c r="J25">
+        <v>0.3236492983837164</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.411003</v>
+      </c>
+      <c r="N25">
+        <v>0.822006</v>
+      </c>
+      <c r="O25">
+        <v>0.1154679903153686</v>
+      </c>
+      <c r="P25">
+        <v>0.08051230526595606</v>
+      </c>
+      <c r="Q25">
+        <v>3.5126562511395</v>
+      </c>
+      <c r="R25">
+        <v>14.050625004558</v>
+      </c>
+      <c r="S25">
+        <v>0.04552416900692872</v>
+      </c>
+      <c r="T25">
+        <v>0.02605775111058227</v>
       </c>
     </row>
   </sheetData>
